--- a/Question_Sets/Situational judgment/Communication (Intermediate).xlsx
+++ b/Question_Sets/Situational judgment/Communication (Intermediate).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You’ve been invited to give a presentation at a professional conference. The audience consists of individuals from diverse backgrounds, including different industries and professional levels.Which of the following approaches would be most effective in communicating with this audience?', 'ques_type': 2, 'options': ['Present concepts to simple terms and make the presentation interactive by asking and answering questions.', 'Speak in a formal, academic tone to show your professionalism and use visual aids to make the presentation engaging.', 'Establish your expertise and relevance by referencing the latest buzzwords and trending topics in your industry', 'Explain each topic first in a manner relevant to your industry colleagues and then in a way others can understand'], 'score': 'Present concepts to simple terms and make the presentation interactive by asking and answering questions.'}, {'title': 'You’re a team manager, and you receive an email from one of your team members requesting immediate time off for personal reasons. The email is brief and urgent, but lacks specific details about the dates or the reason for the time off. This team member is typically reliable and has never sent an email like this before. How should you respond to the email?', 'ques_type': 2, 'options': ['Request more specific information, such as the dates and why they need the time off, before you approve the request.', 'Approve the time off immediately to accommodate the urgency without seeking further details.', 'Forward the email to the HR department and ask them to handle the request.', 'Acknowledge the request and ask them to provide more information at their earliest convenience.'], 'score': 'Request more specific information, such as the dates and why they need the time off, before you approve the request.'}, {'title': 'Your colleague is working on improving the way they provide constructive feedback. They ask you to help them improve the following piece of feedback they want to share with a team member in a written performance review:“Your work is fantastic overall, but you really need to focus on your writing. Every document you’ve submitted is incredibly unprofessional.”Which of the following options shows how they should revise this feedback?', 'ques_type': 2, 'options': ["“Your work is fantastic overall. You don't know how to write professionally, though. Here are examples of where you could have done better.”", "“Your work is fantastic overall. I wish you would write professionally, though. Your documents aren't of the quality we expect from someone with your potential.”", '“Your work is fantastic overall. You need to learn how to write professionally, though. Please review your documents for improvements.”', '“Your work is fantastic overall. Writing professionally, though, is an area you can improve on. Here are examples of where you could have done better.”'], 'score': '“Your work is fantastic overall. Writing professionally, though, is an area you can improve on. Here are examples of where you could have done better.”'}, {'title': 'You’re meeting with a colleague who starts complaining about recent policy changes at the company you both work for. You agree with most of what they’re saying, and you know that the changes have made their job more difficult. You also know that some of the policy changes have solved problems both you and your colleague have often faced. What is the best way to demonstrate empathy for your colleague?', 'ques_type': 2, 'options': ['Remind them of the positive aspects of the policy changes and suggest ways to adapt to the new circumstances. ', 'Suggest that the policy changes are beneficial overall and change the subject to a more positive topic. ', 'Paraphrase what they have said and discuss how policy changes have both benefited and made things difficult for you.', 'Downplay their concerns and emphasize the benefits of the policy changes for the company.'], 'score': 'Paraphrase what they have said and discuss how policy changes have both benefited and made things difficult for you.'}]</t>
+    <t>questions = [
+    {
+        "title": "You\u2019ve been invited to give a presentation at a professional conference. The audience consists of individuals from diverse backgrounds, including different industries and professional levels.Which of the following approaches would be most effective in communicating with this audience?",
+        "ques_type": 2,
+        "options": [
+            "Present concepts to simple terms and make the presentation interactive by asking and answering questions.",
+            "Speak in a formal, academic tone to show your professionalism and use visual aids to make the presentation engaging.",
+            "Establish your expertise and relevance by referencing the latest buzzwords and trending topics in your industry",
+            "Explain each topic first in a manner relevant to your industry colleagues and then in a way others can understand"
+        ],
+        "score": "Present concepts to simple terms and make the presentation interactive by asking and answering questions."
+    },
+    {
+        "title": "You\u2019re a team manager, and you receive an email from one of your team members requesting immediate time off for personal reasons. The email is brief and urgent, but lacks specific details about the dates or the reason for the time off. This team member is typically reliable and has never sent an email like this before. How should you respond to the email?",
+        "ques_type": 2,
+        "options": [
+            "Request more specific information, such as the dates and why they need the time off, before you approve the request.",
+            "Approve the time off immediately to accommodate the urgency without seeking further details.",
+            "Forward the email to the HR department and ask them to handle the request.",
+            "Acknowledge the request and ask them to provide more information at their earliest convenience."
+        ],
+        "score": "Request more specific information, such as the dates and why they need the time off, before you approve the request."
+    },
+    {
+        "title": "Your colleague is working on improving the way they provide constructive feedback. They ask you to help them improve the following piece of feedback they want to share with a team member in a written performance review:\u201cYour work is fantastic overall, but you really need to focus on your writing. Every document you\u2019ve submitted is incredibly unprofessional.\u201dWhich of the following options shows how they should revise this feedback?",
+        "ques_type": 2,
+        "options": [
+            "\u201cYour work is fantastic overall. You don't know how to write professionally, though. Here are examples of where you could have done better.\u201d",
+            "\u201cYour work is fantastic overall. I wish you would write professionally, though. Your documents aren't of the quality we expect from someone with your potential.\u201d",
+            "\u201cYour work is fantastic overall. You need to learn how to write professionally, though. Please review your documents for improvements.\u201d",
+            "\u201cYour work is fantastic overall. Writing professionally, though, is an area you can improve on. Here are examples of where you could have done better.\u201d"
+        ],
+        "score": "\u201cYour work is fantastic overall. Writing professionally, though, is an area you can improve on. Here are examples of where you could have done better.\u201d"
+    },
+    {
+        "title": "You\u2019re meeting with a colleague who starts complaining about recent policy changes at the company you both work for. You agree with most of what they\u2019re saying, and you know that the changes have made their job more difficult. You also know that some of the policy changes have solved problems both you and your colleague have often faced. What is the best way to demonstrate empathy for your colleague?",
+        "ques_type": 2,
+        "options": [
+            "Remind them of the positive aspects of the policy changes and suggest ways to adapt to the new circumstances. ",
+            "Suggest that the policy changes are beneficial overall and change the subject to a more positive topic. ",
+            "Paraphrase what they have said and discuss how policy changes have both benefited and made things difficult for you.",
+            "Downplay their concerns and emphasize the benefits of the policy changes for the company."
+        ],
+        "score": "Paraphrase what they have said and discuss how policy changes have both benefited and made things difficult for you."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
